--- a/docs/support-file/template/3_hcm_clb_url_rule_template.xlsx
+++ b/docs/support-file/template/3_hcm_clb_url_rule_template.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\tencent\hcm\docs\support-file\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaosongwu/Downloads/2025-06-30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8995547B-BAA4-4395-84C8-3C85427D43BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137C6DE5-C21B-8246-BA5E-D39A64DCF8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="41120" windowHeight="25820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="批量创建URL规则-HTTP-HTTPS" sheetId="3" r:id="rId1"/>
-    <sheet name="批量创建监听器-7层规则-启用SNI-本期不支持" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="批量绑定RS(副本)" sheetId="7" state="hidden" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="8" state="hidden" r:id="rId4"/>
-    <sheet name="(本期不支持)批量调整权重" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="实例说明" sheetId="11" r:id="rId2"/>
+    <sheet name="批量创建监听器-7层规则-启用SNI-本期不支持" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="批量绑定RS(副本)" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="(本期不支持)批量调整权重" sheetId="9" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="169">
   <si>
     <t>vendor(云厂商)</t>
   </si>
@@ -109,12 +110,6 @@
   </si>
   <si>
     <t>健康检查</t>
-  </si>
-  <si>
-    <t>用户备注</t>
-  </si>
-  <si>
-    <t>导出备注</t>
   </si>
   <si>
     <t>49.166.15.161</t>
@@ -919,6 +914,16 @@
     <t>30
 60</t>
   </si>
+  <si>
+    <t>用户备注(可选)</t>
+  </si>
+  <si>
+    <t>导出备注(可选)</t>
+  </si>
+  <si>
+    <t>会话保持(0为不开启)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -946,6 +951,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体-简"/>
+      <family val="1"/>
       <charset val="134"/>
     </font>
     <font>
@@ -998,7 +1004,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1037,18 +1043,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1222,37 +1222,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF319B62"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF319B62"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF319B62"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF319B62"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF319B62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1277,65 +1246,198 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color rgb="FF548235"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color rgb="FF548235"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF548235"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF548235"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF548235"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF548235"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF548235"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF548235"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF548235"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF548235"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF548235"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF548235"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF548235"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF548235"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FF002060"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FF002060"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF002060"/>
       </right>
       <top/>
       <bottom/>
@@ -1343,14 +1445,54 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FF002060"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FF002060"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,18 +1502,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+  <cellXfs count="65">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1392,25 +1534,25 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1428,80 +1570,122 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1993,43 +2177,43 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="批量创建URL规则-HTTP-HTTPS"/>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="10" width="18.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="18.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" style="1" customWidth="1"/>
     <col min="13" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="16" thickBot="1">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="44"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="24" t="s">
@@ -2059,565 +2243,565 @@
       <c r="I2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="16" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="B4" s="46" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="1">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="13">
-        <v>80</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B6" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>443</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>41</v>
+      <c r="G6" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I6" s="1">
         <v>60</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="1:12" ht="16.5">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>43</v>
+      <c r="J6" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+    </row>
+    <row r="7" spans="1:12" ht="17">
+      <c r="A7" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>443</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>45</v>
+      <c r="A8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>443</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>31</v>
+      <c r="G8" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I8" s="1">
         <v>120</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
+      <c r="J8" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>52</v>
+      <c r="A11" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
         <v>443</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>54</v>
+      <c r="A12" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1">
         <v>443</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1">
         <v>443</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>31</v>
+      <c r="G13" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
+      <c r="J13" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>59</v>
+      <c r="A14" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1">
         <v>443</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>31</v>
+      <c r="G14" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
+      <c r="J14" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>61</v>
+      <c r="A15" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1">
         <v>443</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>31</v>
+      <c r="G15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I15" s="1">
         <v>120</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
+      <c r="J15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>63</v>
+      <c r="A16" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1">
         <v>443</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>31</v>
+      <c r="G16" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I16" s="1">
         <v>120</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
+      <c r="J16" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>67</v>
+      <c r="A17" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1">
         <v>443</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>31</v>
+      <c r="G17" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I17" s="1">
         <v>120</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="J17" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="1:12" ht="13" customHeight="1" thickBot="1">
+      <c r="A18" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="38">
+        <v>443</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="17">
-        <v>443</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="17">
+      <c r="H18" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="38">
         <v>120</v>
       </c>
-      <c r="J18" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.95" customHeight="1">
+      <c r="J18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="1:12" ht="16" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2628,25 +2812,673 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C875D8-7266-B046-9376-53EAB1CDD971}">
+  <dimension ref="A1:S21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="46.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="18.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" style="1" customWidth="1"/>
+    <col min="13" max="19" width="8.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" thickBot="1">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="55"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1">
+        <v>443</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1">
+        <v>60</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+    </row>
+    <row r="7" spans="1:12" ht="17">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1">
+        <v>443</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1">
+        <v>443</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1">
+        <v>120</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1">
+        <v>443</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1">
+        <v>443</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1">
+        <v>443</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1">
+        <v>443</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1">
+        <v>443</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="1">
+        <v>120</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1">
+        <v>443</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="1">
+        <v>120</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1">
+        <v>443</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="1">
+        <v>120</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="1:12" ht="13" customHeight="1" thickBot="1">
+      <c r="A18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="38">
+        <v>443</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="38">
+        <v>120</v>
+      </c>
+      <c r="J18" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="1:12" ht="16" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1"/>
     <row r="21" spans="1:12" ht="219" customHeight="1">
-      <c r="A21" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
+      <c r="A21" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2658,49 +3490,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="批量创建监听器-7层规则-启用SNI-本期不支持"/>
   <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" customWidth="1"/>
-    <col min="9" max="14" width="18.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="46.85546875" style="10" customWidth="1"/>
+    <col min="9" max="14" width="18.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="46.83203125" style="10" customWidth="1"/>
     <col min="18" max="18" width="17" style="1" customWidth="1"/>
     <col min="19" max="25" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
+        <v>71</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
@@ -2721,13 +3553,13 @@
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -2736,51 +3568,51 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="13">
         <v>80</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -2789,42 +3621,42 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -2832,40 +3664,40 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>443</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1">
         <v>60</v>
       </c>
       <c r="J5" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -2873,40 +3705,40 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>443</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -2914,40 +3746,40 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>443</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1">
         <v>120</v>
       </c>
       <c r="J7" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -2955,37 +3787,37 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -2993,37 +3825,37 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -3031,37 +3863,37 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>443</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -3069,43 +3901,43 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
         <v>443</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -3113,43 +3945,43 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1">
         <v>443</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -3157,43 +3989,43 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1">
         <v>443</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -3201,46 +4033,46 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1">
         <v>443</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I14" s="1">
         <v>120</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -3248,46 +4080,46 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1">
         <v>443</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I15" s="1">
         <v>120</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -3295,168 +4127,168 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1">
         <v>443</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I16" s="1">
         <v>120</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="12.95" customHeight="1">
+    <row r="17" spans="1:16" ht="13" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="17">
         <v>443</v>
       </c>
       <c r="E17" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H17" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I17" s="17">
         <v>120</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M17" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="15.95" customHeight="1">
+    <row r="18" spans="1:16" ht="16" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O18" s="50"/>
-      <c r="P18" s="46"/>
+        <v>89</v>
+      </c>
+      <c r="O18" s="59"/>
+      <c r="P18" s="57"/>
     </row>
     <row r="19" spans="1:16" ht="18" customHeight="1">
       <c r="K19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="4:18">
-      <c r="D81" s="47"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="47"/>
-      <c r="K81" s="47"/>
-      <c r="L81" s="47"/>
-      <c r="M81" s="47"/>
-      <c r="N81" s="47"/>
-      <c r="O81" s="47"/>
-      <c r="P81" s="47"/>
-      <c r="Q81" s="48"/>
-      <c r="R81" s="48"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="60"/>
+      <c r="N81" s="60"/>
+      <c r="O81" s="60"/>
+      <c r="P81" s="60"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3472,68 +4304,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="7" style="1" customWidth="1"/>
-    <col min="18" max="18" width="46.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="46.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="17" style="1" customWidth="1"/>
     <col min="20" max="26" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>21</v>
@@ -3542,45 +4374,45 @@
         <v>22</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="28.5">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1">
         <v>8888</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J2" s="1">
         <v>8000</v>
@@ -3589,45 +4421,45 @@
         <v>50</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="28.5">
-      <c r="A3" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="B3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1">
         <v>8888</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J3" s="1">
         <v>8000</v>
@@ -3636,563 +4468,563 @@
         <v>50</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:19" ht="57">
+    <row r="4" spans="1:19" ht="30">
       <c r="A4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1">
         <v>8889</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K4" s="1">
         <v>50</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M4" s="1">
         <v>60</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="57">
-      <c r="A5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1">
         <v>8890</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J5" s="4">
         <v>8883</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30">
+      <c r="A6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="57">
-      <c r="A6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
         <v>8891</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M6" s="1">
         <v>120</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="30">
+      <c r="A7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="57">
-      <c r="A7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="I7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="K7" s="4">
         <v>50</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="R7" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="30">
+      <c r="A8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="57">
-      <c r="A8" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1">
         <v>20002</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K8" s="4">
         <v>10</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="R8" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30">
+      <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="57">
-      <c r="A9" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1">
         <v>20002</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:19" ht="30">
+      <c r="A10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="57">
-      <c r="A10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1">
         <v>20003</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K10" s="1">
         <v>10</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R10" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30">
+      <c r="A11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="57">
-      <c r="A11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1">
         <v>20003</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="30">
+      <c r="A12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="57">
-      <c r="A12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1">
         <v>20003</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="30">
+      <c r="A13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="57">
-      <c r="A13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="F13" s="1">
         <v>8891</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M13" s="1">
         <v>120</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30">
+      <c r="A14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="8" t="s">
+      <c r="B14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="57">
-      <c r="A14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="I14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M14" s="1">
         <v>120</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="12.95" customHeight="1"/>
-    <row r="17" spans="2:17" ht="15.95" customHeight="1"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="13" customHeight="1"/>
+    <row r="17" spans="2:17" ht="16" customHeight="1"/>
     <row r="18" spans="2:17" ht="234" customHeight="1">
-      <c r="B18" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
+      <c r="B18" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4203,29 +5035,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1">
         <v>8888</v>
@@ -4233,19 +5065,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1">
         <v>8888</v>
@@ -4253,19 +5085,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1">
         <v>8889</v>
@@ -4273,19 +5105,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
         <v>8890</v>
@@ -4293,19 +5125,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1">
         <v>8891</v>
@@ -4313,139 +5145,139 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.5">
-      <c r="A7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1">
         <v>20002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.5">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1">
         <v>20002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.5">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1">
         <v>20003</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.5">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1">
         <v>20003</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1">
         <v>20003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="57">
+    <row r="12" spans="1:6" ht="60">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F12" s="1">
         <v>8891</v>
@@ -4453,22 +5285,22 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4477,83 +5309,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="(本期不支持)批量调整权重"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" customWidth="1"/>
+    <col min="5" max="5" width="46.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="14.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="14">
       <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30">
+      <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="28.5">
-      <c r="A2" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="B2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1">
         <v>8888</v>
@@ -4561,7 +5393,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J2" s="1">
         <v>8000</v>
@@ -4573,24 +5405,24 @@
         <v>50</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="28.5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30">
       <c r="A3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1">
         <v>8889</v>
@@ -4598,10 +5430,10 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K3" s="4">
         <v>20</v>
@@ -4610,24 +5442,24 @@
         <v>50</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="28.5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30">
       <c r="A4" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
         <v>8890</v>
@@ -4635,36 +5467,36 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J4" s="4">
         <v>8883</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30">
+      <c r="A5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="28.5">
-      <c r="A5" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1">
         <v>8891</v>
@@ -4672,47 +5504,47 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18">
+      <c r="A6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.5">
-      <c r="A6" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K6" s="4">
         <v>35</v>
@@ -4721,39 +5553,39 @@
         <v>50</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="28.5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30">
       <c r="A7" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1">
         <v>20002</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K7" s="4">
         <v>20</v>
@@ -4762,80 +5594,80 @@
         <v>10</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="28.5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30">
       <c r="A8" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1">
         <v>20002</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30">
+      <c r="A9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="28.5">
-      <c r="A9" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1">
         <v>20003</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K9" s="4">
         <v>20</v>
@@ -4844,106 +5676,106 @@
         <v>10</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="28.5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30">
       <c r="A10" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1">
         <v>20003</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30">
+      <c r="A11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="28.5">
-      <c r="A11" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1">
         <v>20003</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30">
+      <c r="A12" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="28.5">
-      <c r="A12" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="F12" s="1">
         <v>8891</v>
@@ -4951,56 +5783,56 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="M12" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30">
       <c r="A13" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="M13" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
